--- a/CSS list.xlsx
+++ b/CSS list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>1페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>https://codepen.io/yns/pen/xwmVyb?editors=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://codepen.io/ettrics/pen/WRbGRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://codepen.io/ShaeSco/pen/wPpKgG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -576,7 +587,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,7 +661,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -658,6 +671,9 @@
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>39</v>
@@ -780,9 +796,11 @@
     <hyperlink ref="C6" r:id="rId23"/>
     <hyperlink ref="F12" r:id="rId24"/>
     <hyperlink ref="F13" r:id="rId25"/>
+    <hyperlink ref="B6" r:id="rId26"/>
+    <hyperlink ref="B5" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
